--- a/output/potential _recombination.xlsx
+++ b/output/potential _recombination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saqin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saqin\Desktop\CpG_sites\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B07C8-D103-4BD2-9045-3BB698D499D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BCC13-8BF9-40E2-981A-AE890B801B2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="15480" windowHeight="10320" xr2:uid="{12E901E8-6BB7-4E6B-AEA9-00BE067CF2ED}"/>
+    <workbookView xWindow="2280" yWindow="375" windowWidth="15480" windowHeight="10920" xr2:uid="{12E901E8-6BB7-4E6B-AEA9-00BE067CF2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1708">
   <si>
     <t>Z19534.1</t>
   </si>
@@ -3555,6 +3555,1629 @@
   </si>
   <si>
     <t>gb:KY348788</t>
+  </si>
+  <si>
+    <t>KC013348.1</t>
+  </si>
+  <si>
+    <t>KC013328.1</t>
+  </si>
+  <si>
+    <t>HQ340601.1</t>
+  </si>
+  <si>
+    <t>DQ357065.1</t>
+  </si>
+  <si>
+    <t>DQ357064.1</t>
+  </si>
+  <si>
+    <t>U38507.1</t>
+  </si>
+  <si>
+    <t>U38506.1</t>
+  </si>
+  <si>
+    <t>AB126270.1</t>
+  </si>
+  <si>
+    <t>AB126264.1</t>
+  </si>
+  <si>
+    <t>U38509.1</t>
+  </si>
+  <si>
+    <t>AY661660.1</t>
+  </si>
+  <si>
+    <t>EU478589.1</t>
+  </si>
+  <si>
+    <t>AB030694.1</t>
+  </si>
+  <si>
+    <t>KR005643.1</t>
+  </si>
+  <si>
+    <t>EU478585.1</t>
+  </si>
+  <si>
+    <t>EU478555.1</t>
+  </si>
+  <si>
+    <t>JN211132.1</t>
+  </si>
+  <si>
+    <t>JN211128.1</t>
+  </si>
+  <si>
+    <t>JN211126.1</t>
+  </si>
+  <si>
+    <t>EU478568.1</t>
+  </si>
+  <si>
+    <t>JN211146.1</t>
+  </si>
+  <si>
+    <t>EU478571.1</t>
+  </si>
+  <si>
+    <t>EU478562.1</t>
+  </si>
+  <si>
+    <t>AB126226.1</t>
+  </si>
+  <si>
+    <t>EU478560.1</t>
+  </si>
+  <si>
+    <t>AJ781037.1</t>
+  </si>
+  <si>
+    <t>JN211123.1</t>
+  </si>
+  <si>
+    <t>JN211162.1</t>
+  </si>
+  <si>
+    <t>AJ781036.1</t>
+  </si>
+  <si>
+    <t>AJ781034.1</t>
+  </si>
+  <si>
+    <t>AJ781031.1</t>
+  </si>
+  <si>
+    <t>AB126267.1</t>
+  </si>
+  <si>
+    <t>EU478569.1</t>
+  </si>
+  <si>
+    <t>JN211141.1</t>
+  </si>
+  <si>
+    <t>AJ781038.1</t>
+  </si>
+  <si>
+    <t>KX752821.1</t>
+  </si>
+  <si>
+    <t>JN211184.1</t>
+  </si>
+  <si>
+    <t>JN211181.1</t>
+  </si>
+  <si>
+    <t>JN211152.1</t>
+  </si>
+  <si>
+    <t>AJ781035.1</t>
+  </si>
+  <si>
+    <t>AJ781032.1</t>
+  </si>
+  <si>
+    <t>EU478536.1</t>
+  </si>
+  <si>
+    <t>AY661661.1</t>
+  </si>
+  <si>
+    <t>EU478584.1</t>
+  </si>
+  <si>
+    <t>JN211166.1</t>
+  </si>
+  <si>
+    <t>AB126268.1</t>
+  </si>
+  <si>
+    <t>JN211124.1</t>
+  </si>
+  <si>
+    <t>JN211173.1</t>
+  </si>
+  <si>
+    <t>AY768535.1</t>
+  </si>
+  <si>
+    <t>JN211135.1</t>
+  </si>
+  <si>
+    <t>JN211161.1</t>
+  </si>
+  <si>
+    <t>EU478575.1</t>
+  </si>
+  <si>
+    <t>JN211168.1</t>
+  </si>
+  <si>
+    <t>EU478583.1</t>
+  </si>
+  <si>
+    <t>EU478582.1</t>
+  </si>
+  <si>
+    <t>JN211134.1</t>
+  </si>
+  <si>
+    <t>JN211122.1</t>
+  </si>
+  <si>
+    <t>FN669505.1</t>
+  </si>
+  <si>
+    <t>FN669504.1</t>
+  </si>
+  <si>
+    <t>EU478581.1</t>
+  </si>
+  <si>
+    <t>EU478580.1</t>
+  </si>
+  <si>
+    <t>JN211172.1</t>
+  </si>
+  <si>
+    <t>JN211174.1</t>
+  </si>
+  <si>
+    <t>HQ130278.1</t>
+  </si>
+  <si>
+    <t>HQ664953.1</t>
+  </si>
+  <si>
+    <t>KC013340.1</t>
+  </si>
+  <si>
+    <t>EU478527.1</t>
+  </si>
+  <si>
+    <t>KM065415.1</t>
+  </si>
+  <si>
+    <t>JN211170.1</t>
+  </si>
+  <si>
+    <t>JN211175.1</t>
+  </si>
+  <si>
+    <t>JN211140.1</t>
+  </si>
+  <si>
+    <t>JN211185.1</t>
+  </si>
+  <si>
+    <t>DQ225150.1</t>
+  </si>
+  <si>
+    <t>DQ225151.1</t>
+  </si>
+  <si>
+    <t>DQ225149.1</t>
+  </si>
+  <si>
+    <t>AF161223.1</t>
+  </si>
+  <si>
+    <t>EU478528.1</t>
+  </si>
+  <si>
+    <t>JN211164.1</t>
+  </si>
+  <si>
+    <t>KM065414.1</t>
+  </si>
+  <si>
+    <t>AF113323.1</t>
+  </si>
+  <si>
+    <t>EU478577.1</t>
+  </si>
+  <si>
+    <t>EU478529.1</t>
+  </si>
+  <si>
+    <t>U38513.1</t>
+  </si>
+  <si>
+    <t>EU478588.1</t>
+  </si>
+  <si>
+    <t>EU478587.1</t>
+  </si>
+  <si>
+    <t>EU478534.1</t>
+  </si>
+  <si>
+    <t>EU478570.1</t>
+  </si>
+  <si>
+    <t>JN211153.1</t>
+  </si>
+  <si>
+    <t>JN211149.1</t>
+  </si>
+  <si>
+    <t>JN211182.1</t>
+  </si>
+  <si>
+    <t>JN211160.1</t>
+  </si>
+  <si>
+    <t>JN211139.1</t>
+  </si>
+  <si>
+    <t>JN211147.1</t>
+  </si>
+  <si>
+    <t>JN211143.1</t>
+  </si>
+  <si>
+    <t>JN211131.1</t>
+  </si>
+  <si>
+    <t>JN211177.1</t>
+  </si>
+  <si>
+    <t>JN211159.1</t>
+  </si>
+  <si>
+    <t>JN211167.1</t>
+  </si>
+  <si>
+    <t>JN211138.1</t>
+  </si>
+  <si>
+    <t>KC013322.1</t>
+  </si>
+  <si>
+    <t>AF161226.1</t>
+  </si>
+  <si>
+    <t>EU478586.1</t>
+  </si>
+  <si>
+    <t>EU478574.1</t>
+  </si>
+  <si>
+    <t>JN211127.1</t>
+  </si>
+  <si>
+    <t>JN211151.1</t>
+  </si>
+  <si>
+    <t>JN211150.1</t>
+  </si>
+  <si>
+    <t>JN211125.1</t>
+  </si>
+  <si>
+    <t>EU478576.1</t>
+  </si>
+  <si>
+    <t>EU478561.1</t>
+  </si>
+  <si>
+    <t>EU478559.1</t>
+  </si>
+  <si>
+    <t>JN211183.1</t>
+  </si>
+  <si>
+    <t>JN211163.1</t>
+  </si>
+  <si>
+    <t>JN211176.1</t>
+  </si>
+  <si>
+    <t>JN211144.1</t>
+  </si>
+  <si>
+    <t>JN211157.1</t>
+  </si>
+  <si>
+    <t>JN211178.1</t>
+  </si>
+  <si>
+    <t>JN211165.1</t>
+  </si>
+  <si>
+    <t>JN211133.1</t>
+  </si>
+  <si>
+    <t>FN669507.1</t>
+  </si>
+  <si>
+    <t>KR005642.1</t>
+  </si>
+  <si>
+    <t>KR005641.1</t>
+  </si>
+  <si>
+    <t>KR005644.1</t>
+  </si>
+  <si>
+    <t>KR005640.1</t>
+  </si>
+  <si>
+    <t>JN211145.1</t>
+  </si>
+  <si>
+    <t>JN211148.1</t>
+  </si>
+  <si>
+    <t>FN669506.1</t>
+  </si>
+  <si>
+    <t>FN669503.1</t>
+  </si>
+  <si>
+    <t>FN669502.1</t>
+  </si>
+  <si>
+    <t>JN211158.1</t>
+  </si>
+  <si>
+    <t>JN211137.1</t>
+  </si>
+  <si>
+    <t>JN211171.1</t>
+  </si>
+  <si>
+    <t>JN211136.1</t>
+  </si>
+  <si>
+    <t>JN211156.1</t>
+  </si>
+  <si>
+    <t>JN211142.1</t>
+  </si>
+  <si>
+    <t>JN211121.1</t>
+  </si>
+  <si>
+    <t>EU478578.1</t>
+  </si>
+  <si>
+    <t>KC013335.1</t>
+  </si>
+  <si>
+    <t>AF161225.1</t>
+  </si>
+  <si>
+    <t>EU478531.1</t>
+  </si>
+  <si>
+    <t>EU478563.1</t>
+  </si>
+  <si>
+    <t>EU478566.1</t>
+  </si>
+  <si>
+    <t>EU478544.1</t>
+  </si>
+  <si>
+    <t>U38512.1</t>
+  </si>
+  <si>
+    <t>U53601.1</t>
+  </si>
+  <si>
+    <t>U53600.1</t>
+  </si>
+  <si>
+    <t>U53599.1</t>
+  </si>
+  <si>
+    <t>U53598.1</t>
+  </si>
+  <si>
+    <t>U53597.1</t>
+  </si>
+  <si>
+    <t>U53596.1</t>
+  </si>
+  <si>
+    <t>U53595.1</t>
+  </si>
+  <si>
+    <t>U53594.1</t>
+  </si>
+  <si>
+    <t>U53593.1</t>
+  </si>
+  <si>
+    <t>U38508.1</t>
+  </si>
+  <si>
+    <t>JN211129.1</t>
+  </si>
+  <si>
+    <t>JN211179.1</t>
+  </si>
+  <si>
+    <t>Z70599.1</t>
+  </si>
+  <si>
+    <t>JN211155.1</t>
+  </si>
+  <si>
+    <t>DQ293995.2</t>
+  </si>
+  <si>
+    <t>EU478539.1</t>
+  </si>
+  <si>
+    <t>KC013343.1</t>
+  </si>
+  <si>
+    <t>U38516.1</t>
+  </si>
+  <si>
+    <t>KC013308.1</t>
+  </si>
+  <si>
+    <t>EU478541.1</t>
+  </si>
+  <si>
+    <t>EU478537.1</t>
+  </si>
+  <si>
+    <t>EU478542.1</t>
+  </si>
+  <si>
+    <t>EU478540.1</t>
+  </si>
+  <si>
+    <t>EU478547.1</t>
+  </si>
+  <si>
+    <t>EU4785721</t>
+  </si>
+  <si>
+    <t>JN211180.1</t>
+  </si>
+  <si>
+    <t>EU478545.1</t>
+  </si>
+  <si>
+    <t>EU478532.1</t>
+  </si>
+  <si>
+    <t>EU478530.1</t>
+  </si>
+  <si>
+    <t>EU478533.1</t>
+  </si>
+  <si>
+    <t>EU478554.1</t>
+  </si>
+  <si>
+    <t>EU478546.1</t>
+  </si>
+  <si>
+    <t>EU478550.1</t>
+  </si>
+  <si>
+    <t>EU478556.1</t>
+  </si>
+  <si>
+    <t>EU478549.1</t>
+  </si>
+  <si>
+    <t>EU478558.1</t>
+  </si>
+  <si>
+    <t>EU478551.1</t>
+  </si>
+  <si>
+    <t>EU478557.1</t>
+  </si>
+  <si>
+    <t>EU478552.1</t>
+  </si>
+  <si>
+    <t>EU478553.1</t>
+  </si>
+  <si>
+    <t>EU478538.1</t>
+  </si>
+  <si>
+    <t>EU478573.1</t>
+  </si>
+  <si>
+    <t>EU478543.1</t>
+  </si>
+  <si>
+    <t>AF161224.1</t>
+  </si>
+  <si>
+    <t>EU478567.1</t>
+  </si>
+  <si>
+    <t>KC013346.1</t>
+  </si>
+  <si>
+    <t>KC013325.1</t>
+  </si>
+  <si>
+    <t>KC013305.1</t>
+  </si>
+  <si>
+    <t>KC013347.1</t>
+  </si>
+  <si>
+    <t>KC013329.1</t>
+  </si>
+  <si>
+    <t>U38515.1</t>
+  </si>
+  <si>
+    <t>KC013316.1</t>
+  </si>
+  <si>
+    <t>JN211130.1</t>
+  </si>
+  <si>
+    <t>FJ429098.1</t>
+  </si>
+  <si>
+    <t>KC013321.1</t>
+  </si>
+  <si>
+    <t>EU478565.1</t>
+  </si>
+  <si>
+    <t>KC013324.1</t>
+  </si>
+  <si>
+    <t>U38546.1</t>
+  </si>
+  <si>
+    <t>EU478564.1</t>
+  </si>
+  <si>
+    <t>AB126263.1</t>
+  </si>
+  <si>
+    <t>AB126224.1</t>
+  </si>
+  <si>
+    <t>AB126271.1</t>
+  </si>
+  <si>
+    <t>AB030693.1</t>
+  </si>
+  <si>
+    <t>AB030673.1</t>
+  </si>
+  <si>
+    <t>U38518.1</t>
+  </si>
+  <si>
+    <t>EU478548.1</t>
+  </si>
+  <si>
+    <t>EU478535.1</t>
+  </si>
+  <si>
+    <t>U38514.1</t>
+  </si>
+  <si>
+    <t>U31358.1</t>
+  </si>
+  <si>
+    <t>KC013332.1</t>
+  </si>
+  <si>
+    <t>EU478579.1</t>
+  </si>
+  <si>
+    <t>U38517.1</t>
+  </si>
+  <si>
+    <t>DQ408301.1</t>
+  </si>
+  <si>
+    <t>AF264149.1</t>
+  </si>
+  <si>
+    <t>U38511.1</t>
+  </si>
+  <si>
+    <t>AB126269.1</t>
+  </si>
+  <si>
+    <t>U38510.1</t>
+  </si>
+  <si>
+    <t>KC013303.1</t>
+  </si>
+  <si>
+    <t>KC013327.1</t>
+  </si>
+  <si>
+    <t>KC013351.1</t>
+  </si>
+  <si>
+    <t>KC013313.1</t>
+  </si>
+  <si>
+    <t>KC013312.1</t>
+  </si>
+  <si>
+    <t>KC013344.1</t>
+  </si>
+  <si>
+    <t>KC013314.1</t>
+  </si>
+  <si>
+    <t>KC013331.1</t>
+  </si>
+  <si>
+    <t>KC013333.1</t>
+  </si>
+  <si>
+    <t>KC013338.1</t>
+  </si>
+  <si>
+    <t>JF714123.1</t>
+  </si>
+  <si>
+    <t>KF451902.1</t>
+  </si>
+  <si>
+    <t>KM029495.1</t>
+  </si>
+  <si>
+    <t>JF714020.1</t>
+  </si>
+  <si>
+    <t>HQ424885.1</t>
+  </si>
+  <si>
+    <t>JF714129.1</t>
+  </si>
+  <si>
+    <t>KY273038.1</t>
+  </si>
+  <si>
+    <t>JX080631.1</t>
+  </si>
+  <si>
+    <t>FJ743466.1</t>
+  </si>
+  <si>
+    <t>CY092093.1</t>
+  </si>
+  <si>
+    <t>AF091317.1</t>
+  </si>
+  <si>
+    <t>CY110921.1</t>
+  </si>
+  <si>
+    <t>KF041892.1</t>
+  </si>
+  <si>
+    <t>KX431183.1</t>
+  </si>
+  <si>
+    <t>KX431184.1</t>
+  </si>
+  <si>
+    <t>KJ690471.1</t>
+  </si>
+  <si>
+    <t>KX431178.1</t>
+  </si>
+  <si>
+    <t>KX431171.1</t>
+  </si>
+  <si>
+    <t>KX431170.1</t>
+  </si>
+  <si>
+    <t>KX431174.1</t>
+  </si>
+  <si>
+    <t>KX431185.1</t>
+  </si>
+  <si>
+    <t>HM144125.1</t>
+  </si>
+  <si>
+    <t>JX416734.1</t>
+  </si>
+  <si>
+    <t>JX416718.1</t>
+  </si>
+  <si>
+    <t>JX416726.1</t>
+  </si>
+  <si>
+    <t>JN899402.1</t>
+  </si>
+  <si>
+    <t>JN899403.1</t>
+  </si>
+  <si>
+    <t>JN899405.1</t>
+  </si>
+  <si>
+    <t>JN899404.1</t>
+  </si>
+  <si>
+    <t>HM176663.1</t>
+  </si>
+  <si>
+    <t>HM144128.1</t>
+  </si>
+  <si>
+    <t>HM144117.1</t>
+  </si>
+  <si>
+    <t>HM144138.1</t>
+  </si>
+  <si>
+    <t>HM144133.1</t>
+  </si>
+  <si>
+    <t>HM144131.1</t>
+  </si>
+  <si>
+    <t>EU716574</t>
+  </si>
+  <si>
+    <t>AB501383.1</t>
+  </si>
+  <si>
+    <t>HM144124.1</t>
+  </si>
+  <si>
+    <t>HM144120.1</t>
+  </si>
+  <si>
+    <t>FR716598.1</t>
+  </si>
+  <si>
+    <t>EU716598.1</t>
+  </si>
+  <si>
+    <t>CY089035.1</t>
+  </si>
+  <si>
+    <t>AB501385.1</t>
+  </si>
+  <si>
+    <t>CY099321.1</t>
+  </si>
+  <si>
+    <t>CY080849.1</t>
+  </si>
+  <si>
+    <t>CY080843.1</t>
+  </si>
+  <si>
+    <t>CY080829.1</t>
+  </si>
+  <si>
+    <t>CY080673.1</t>
+  </si>
+  <si>
+    <t>CY080594.1</t>
+  </si>
+  <si>
+    <t>CY089163.1</t>
+  </si>
+  <si>
+    <t>CY089155.1</t>
+  </si>
+  <si>
+    <t>CY089139.1</t>
+  </si>
+  <si>
+    <t>CY089067.1</t>
+  </si>
+  <si>
+    <t>CY089147.1</t>
+  </si>
+  <si>
+    <t>CY089091.1</t>
+  </si>
+  <si>
+    <t>CY080969.1</t>
+  </si>
+  <si>
+    <t>CY080753.1</t>
+  </si>
+  <si>
+    <t>CY080697.1</t>
+  </si>
+  <si>
+    <t>CY080809.1</t>
+  </si>
+  <si>
+    <t>CY080817.1</t>
+  </si>
+  <si>
+    <t>CY080658.1</t>
+  </si>
+  <si>
+    <t>CY080737.1</t>
+  </si>
+  <si>
+    <t>CY080785.1</t>
+  </si>
+  <si>
+    <t>CY080650.1</t>
+  </si>
+  <si>
+    <t>CY100828.2</t>
+  </si>
+  <si>
+    <t>CY080761.1</t>
+  </si>
+  <si>
+    <t>CY100812.2</t>
+  </si>
+  <si>
+    <t>CY100876.2</t>
+  </si>
+  <si>
+    <t>CY100868.2</t>
+  </si>
+  <si>
+    <t>CY100972.2</t>
+  </si>
+  <si>
+    <t>CY099315.1</t>
+  </si>
+  <si>
+    <t>CY099324.1</t>
+  </si>
+  <si>
+    <t>CY099326.1</t>
+  </si>
+  <si>
+    <t>CY099316.1</t>
+  </si>
+  <si>
+    <t>CY099323.1</t>
+  </si>
+  <si>
+    <t>CY099325.1</t>
+  </si>
+  <si>
+    <t>CY099318.1</t>
+  </si>
+  <si>
+    <t>CY080913.1</t>
+  </si>
+  <si>
+    <t>CY099317.1</t>
+  </si>
+  <si>
+    <t>CY099319.1</t>
+  </si>
+  <si>
+    <t>JN676130</t>
+  </si>
+  <si>
+    <t>CY100860.2</t>
+  </si>
+  <si>
+    <t>CY087151.1</t>
+  </si>
+  <si>
+    <t>CY080841.1</t>
+  </si>
+  <si>
+    <t>CY089059.1</t>
+  </si>
+  <si>
+    <t>KJ130156.1</t>
+  </si>
+  <si>
+    <t>CY100780.2</t>
+  </si>
+  <si>
+    <t>CY100820.2</t>
+  </si>
+  <si>
+    <t>CY080945.1</t>
+  </si>
+  <si>
+    <t>CY089709.1</t>
+  </si>
+  <si>
+    <t>KJ130148.1</t>
+  </si>
+  <si>
+    <t>KJ130180.1</t>
+  </si>
+  <si>
+    <t>KJ130188.1</t>
+  </si>
+  <si>
+    <t>KJ130204.1</t>
+  </si>
+  <si>
+    <t>KJ130172.1</t>
+  </si>
+  <si>
+    <t>KJ130164.1</t>
+  </si>
+  <si>
+    <t>CY100836.2</t>
+  </si>
+  <si>
+    <t>CY100844.2</t>
+  </si>
+  <si>
+    <t>CY080769.1</t>
+  </si>
+  <si>
+    <t>CY080921.1</t>
+  </si>
+  <si>
+    <t>CY080953.1</t>
+  </si>
+  <si>
+    <t>CY080937.1</t>
+  </si>
+  <si>
+    <t>CY080889.1</t>
+  </si>
+  <si>
+    <t>CY080721.1</t>
+  </si>
+  <si>
+    <t>CY089051.1</t>
+  </si>
+  <si>
+    <t>CY081001.1</t>
+  </si>
+  <si>
+    <t>CY080993.1</t>
+  </si>
+  <si>
+    <t>CY080689.1</t>
+  </si>
+  <si>
+    <t>CY089107.1</t>
+  </si>
+  <si>
+    <t>CY089075.1</t>
+  </si>
+  <si>
+    <t>CY089781.1</t>
+  </si>
+  <si>
+    <t>CY089131.1</t>
+  </si>
+  <si>
+    <t>CY089099.1</t>
+  </si>
+  <si>
+    <t>CY01009.1</t>
+  </si>
+  <si>
+    <t>CY080642.1</t>
+  </si>
+  <si>
+    <t>CY080961.1</t>
+  </si>
+  <si>
+    <t>CY080857.1</t>
+  </si>
+  <si>
+    <t>CY080793.1</t>
+  </si>
+  <si>
+    <t>CY080777.1</t>
+  </si>
+  <si>
+    <t>CY080681.1</t>
+  </si>
+  <si>
+    <t>CY080713.1</t>
+  </si>
+  <si>
+    <t>CY089123.1</t>
+  </si>
+  <si>
+    <t>CY080873.1</t>
+  </si>
+  <si>
+    <t>CY089171.1</t>
+  </si>
+  <si>
+    <t>CY080825.1</t>
+  </si>
+  <si>
+    <t>CY080745.1</t>
+  </si>
+  <si>
+    <t>CY089115.1</t>
+  </si>
+  <si>
+    <t>CY080865.1</t>
+  </si>
+  <si>
+    <t>CY080705.1</t>
+  </si>
+  <si>
+    <t>CY080729.1</t>
+  </si>
+  <si>
+    <t>CY080577.1</t>
+  </si>
+  <si>
+    <t>CY080626.1</t>
+  </si>
+  <si>
+    <t>CY080977.1</t>
+  </si>
+  <si>
+    <t>CY080634.1</t>
+  </si>
+  <si>
+    <t>CY080905.1</t>
+  </si>
+  <si>
+    <t>CY080897.1</t>
+  </si>
+  <si>
+    <t>CY080833.1</t>
+  </si>
+  <si>
+    <t>CY080757.1</t>
+  </si>
+  <si>
+    <t>CY089083.1</t>
+  </si>
+  <si>
+    <t>CY080985.1</t>
+  </si>
+  <si>
+    <t>CY100948.2</t>
+  </si>
+  <si>
+    <t>CY100956.2</t>
+  </si>
+  <si>
+    <t>CY100900.2</t>
+  </si>
+  <si>
+    <t>CY100892.2</t>
+  </si>
+  <si>
+    <t>CY100940.2</t>
+  </si>
+  <si>
+    <t>CY100916.2</t>
+  </si>
+  <si>
+    <t>CY099320.1</t>
+  </si>
+  <si>
+    <t>CY099322.2</t>
+  </si>
+  <si>
+    <t>CY081017.1</t>
+  </si>
+  <si>
+    <t>CY100804.2</t>
+  </si>
+  <si>
+    <t>HM144135.1</t>
+  </si>
+  <si>
+    <t>HM144136.1</t>
+  </si>
+  <si>
+    <t>HM144134.1</t>
+  </si>
+  <si>
+    <t>CY100772.2</t>
+  </si>
+  <si>
+    <t>CY087143.1</t>
+  </si>
+  <si>
+    <t>CY100964.2</t>
+  </si>
+  <si>
+    <t>MF768416.1</t>
+  </si>
+  <si>
+    <t>KF849796.1</t>
+  </si>
+  <si>
+    <t>HQ419006.1</t>
+  </si>
+  <si>
+    <t>HQ695986.1</t>
+  </si>
+  <si>
+    <t>KU518822.1</t>
+  </si>
+  <si>
+    <t>KU720435.1</t>
+  </si>
+  <si>
+    <t>CY085702.2</t>
+  </si>
+  <si>
+    <t>JX975041.1</t>
+  </si>
+  <si>
+    <t>JX983105.1</t>
+  </si>
+  <si>
+    <t>KF680058.1</t>
+  </si>
+  <si>
+    <t>GU046744.1</t>
+  </si>
+  <si>
+    <t>KR862410.1</t>
+  </si>
+  <si>
+    <t>KC167141.1</t>
+  </si>
+  <si>
+    <t>KP003901.1</t>
+  </si>
+  <si>
+    <t>KY284531.1</t>
+  </si>
+  <si>
+    <t>KY930507.1</t>
+  </si>
+  <si>
+    <t>KU720436.1</t>
+  </si>
+  <si>
+    <t>KU720432.1</t>
+  </si>
+  <si>
+    <t>JX975044.1</t>
+  </si>
+  <si>
+    <t>KC117394.1</t>
+  </si>
+  <si>
+    <t>JX983102.1</t>
+  </si>
+  <si>
+    <t>KC167162.1</t>
+  </si>
+  <si>
+    <t>KC167144.1</t>
+  </si>
+  <si>
+    <t>CY089810.1</t>
+  </si>
+  <si>
+    <t>KF849783.1</t>
+  </si>
+  <si>
+    <t>KC876526.1</t>
+  </si>
+  <si>
+    <t>GU215034.1</t>
+  </si>
+  <si>
+    <t>FJ561060.1</t>
+  </si>
+  <si>
+    <t>KF805664.1</t>
+  </si>
+  <si>
+    <t>KF335958.1</t>
+  </si>
+  <si>
+    <t>KF952369.1</t>
+  </si>
+  <si>
+    <t>KF335956.1</t>
+  </si>
+  <si>
+    <t>KF335938.1</t>
+  </si>
+  <si>
+    <t>GU215018.1</t>
+  </si>
+  <si>
+    <t>U07146.1</t>
+  </si>
+  <si>
+    <t>KM061038.1</t>
+  </si>
+  <si>
+    <t>KP335919.1</t>
+  </si>
+  <si>
+    <t>KC296480.1</t>
+  </si>
+  <si>
+    <t>HM641177.1</t>
+  </si>
+  <si>
+    <t>KF874500.2</t>
+  </si>
+  <si>
+    <t>HM641174.1</t>
+  </si>
+  <si>
+    <t>HM641173.1</t>
+  </si>
+  <si>
+    <t>AB295605.1</t>
+  </si>
+  <si>
+    <t>HM641172.1</t>
+  </si>
+  <si>
+    <t>HM641169.1</t>
+  </si>
+  <si>
+    <t>HM641170.1</t>
+  </si>
+  <si>
+    <t>HM641171.1</t>
+  </si>
+  <si>
+    <t>HM641168.1</t>
+  </si>
+  <si>
+    <t>HM641178.1</t>
+  </si>
+  <si>
+    <t>HM641176.1</t>
+  </si>
+  <si>
+    <t>HM641175.1</t>
+  </si>
+  <si>
+    <t>KC620455.2</t>
+  </si>
+  <si>
+    <t>GQ422437.1</t>
+  </si>
+  <si>
+    <t>GQ422434.1</t>
+  </si>
+  <si>
+    <t>GQ422433.1</t>
+  </si>
+  <si>
+    <t>GQ422432.1</t>
+  </si>
+  <si>
+    <t>JN105973.1</t>
+  </si>
+  <si>
+    <t>GQ422435.1</t>
+  </si>
+  <si>
+    <t>GQ422436.1</t>
+  </si>
+  <si>
+    <t>JX494714.1</t>
+  </si>
+  <si>
+    <t>KF874501.2</t>
+  </si>
+  <si>
+    <t>KC296467.1</t>
+  </si>
+  <si>
+    <t>CY122327.1</t>
+  </si>
+  <si>
+    <t>EU798795.1</t>
+  </si>
+  <si>
+    <t>KJ650532.1</t>
+  </si>
+  <si>
+    <t>KF179110.1</t>
+  </si>
+  <si>
+    <t>KJ579977.1</t>
+  </si>
+  <si>
+    <t>AB434352.1</t>
+  </si>
+  <si>
+    <t>AB434344.1</t>
+  </si>
+  <si>
+    <t>EU045362.2</t>
+  </si>
+  <si>
+    <t>EU982296.1</t>
+  </si>
+  <si>
+    <t>EU982295.1</t>
+  </si>
+  <si>
+    <t>EU924271.1</t>
+  </si>
+  <si>
+    <t>GQ161151.1</t>
+  </si>
+  <si>
+    <t>GQ161149.1</t>
+  </si>
+  <si>
+    <t>GQ161170.1</t>
+  </si>
+  <si>
+    <t>GQ161136.1</t>
+  </si>
+  <si>
+    <t>GQ161129.1</t>
+  </si>
+  <si>
+    <t>CY116503.1</t>
+  </si>
+  <si>
+    <t>CY116474.1</t>
+  </si>
+  <si>
+    <t>EU045365.2</t>
+  </si>
+  <si>
+    <t>EU045371.2</t>
+  </si>
+  <si>
+    <t>HF674896.1</t>
+  </si>
+  <si>
+    <t>CY116450.1</t>
+  </si>
+  <si>
+    <t>GQ161147.1</t>
+  </si>
+  <si>
+    <t>HE774666.1</t>
+  </si>
+  <si>
+    <t>CY116558.1</t>
+  </si>
+  <si>
+    <t>JX569006.1</t>
+  </si>
+  <si>
+    <t>JX437631.1</t>
+  </si>
+  <si>
+    <t>KJ437631.1</t>
+  </si>
+  <si>
+    <t>FJ798772.1</t>
+  </si>
+  <si>
+    <t>FJ688268.1</t>
+  </si>
+  <si>
+    <t>AB434360.1</t>
+  </si>
+  <si>
+    <t>CY116095.1</t>
+  </si>
+  <si>
+    <t>CY116135.1</t>
+  </si>
+  <si>
+    <t>CY116315.1</t>
+  </si>
+  <si>
+    <t>CY115996.1</t>
+  </si>
+  <si>
+    <t>CY116175.1</t>
+  </si>
+  <si>
+    <t>KC895864.1</t>
+  </si>
+  <si>
+    <t>M55059.1</t>
+  </si>
+  <si>
+    <t>CY077820.1</t>
+  </si>
+  <si>
+    <t>DQ508929.1</t>
+  </si>
+  <si>
+    <t>CY077834.1</t>
+  </si>
+  <si>
+    <t>CY077793.1</t>
+  </si>
+  <si>
+    <t>EF569597.1</t>
+  </si>
+  <si>
+    <t>JX138525.1</t>
+  </si>
+  <si>
+    <t>GU086129.1</t>
+  </si>
+  <si>
+    <t>GU086121.1</t>
+  </si>
+  <si>
+    <t>GU086145.1</t>
+  </si>
+  <si>
+    <t>GU086153.1</t>
+  </si>
+  <si>
+    <t>EU791923.1</t>
+  </si>
+  <si>
+    <t>DQ119822.1</t>
+  </si>
+  <si>
+    <t>CY009372.1</t>
+  </si>
+  <si>
+    <t>CY009380.1</t>
+  </si>
+  <si>
+    <t>CY020501.1</t>
+  </si>
+  <si>
+    <t>CY010564.1</t>
+  </si>
+  <si>
+    <t>LC431436.1</t>
+  </si>
+  <si>
+    <t>CY006026.1</t>
+  </si>
+  <si>
+    <t>CY020325.1</t>
+  </si>
+  <si>
+    <t>CY020221.1</t>
+  </si>
+  <si>
+    <t>CY020277.1</t>
+  </si>
+  <si>
+    <t>CY021941.1</t>
+  </si>
+  <si>
+    <t>CY021829.1</t>
+  </si>
+  <si>
+    <t>CY022309.1</t>
+  </si>
+  <si>
+    <t>CY021101.1</t>
+  </si>
+  <si>
+    <t>LC431428.1</t>
+  </si>
+  <si>
+    <t>CY021093.1</t>
+  </si>
+  <si>
+    <t>CY021597.1</t>
+  </si>
+  <si>
+    <t>CY022946.1</t>
+  </si>
+  <si>
+    <t>CY021117.1</t>
+  </si>
+  <si>
+    <t>CY022938.1</t>
+  </si>
+  <si>
+    <t>CY021085.1</t>
+  </si>
+  <si>
+    <t>CY021845.1</t>
+  </si>
+  <si>
+    <t>CY020525.1</t>
+  </si>
+  <si>
+    <t>CY022085.1</t>
+  </si>
+  <si>
+    <t>CY019891.1</t>
+  </si>
+  <si>
+    <t>CY011120.1</t>
+  </si>
+  <si>
+    <t>CY019915.1</t>
+  </si>
+  <si>
+    <t>CY019899.1</t>
+  </si>
+  <si>
+    <t>CY019907.1</t>
+  </si>
+  <si>
+    <t>AB573665.2</t>
+  </si>
+  <si>
+    <t>AB573013.2</t>
+  </si>
+  <si>
+    <t>AB571803.2</t>
+  </si>
+  <si>
+    <t>MF441102.1</t>
+  </si>
+  <si>
+    <t>MF599430.1</t>
+  </si>
+  <si>
+    <t>MG572338.1</t>
+  </si>
+  <si>
+    <t>MG254103.1</t>
+  </si>
+  <si>
+    <t>KF178709.1</t>
+  </si>
+  <si>
+    <t>DQ345546.1</t>
+  </si>
+  <si>
+    <t>KJ958965.1</t>
+  </si>
+  <si>
+    <t>KX827329.1</t>
+  </si>
+  <si>
+    <t>MG027903.1</t>
+  </si>
+  <si>
+    <t>KJ856416.1</t>
+  </si>
+  <si>
+    <t>KJ856290.1</t>
+  </si>
+  <si>
+    <t>CY116489.1</t>
   </si>
 </sst>
 </file>
@@ -3963,8 +5586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E804EF2-F24E-4FB0-81E7-4B25CF68900C}">
   <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:T44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,7 +7280,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -5671,7 +7294,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -5700,7 +7323,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -5750,7 +7373,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -5762,7 +7385,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -5774,7 +7397,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -6028,7 +7651,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -6159,7 +7782,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -6536,7 +8159,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="25" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -6647,13 +8270,13 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -6661,7 +8284,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -6672,7 +8295,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +8330,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -7081,25 +8704,1027 @@
         <v>755</v>
       </c>
     </row>
-    <row r="31" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:185" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1406</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AT31" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AU31" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AV31" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AW31" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AX31" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AY31" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AZ31" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BA31" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BB31" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BC31" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BD31" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BE31" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BF31" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BG31" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BH31" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BI31" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BJ31" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BK31" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BL31" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BM31" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BN31" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BO31" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BP31" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BQ31" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BR31" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BS31" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BT31" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BU31" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BV31" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BW31" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BX31" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="BY31" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BZ31" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="CA31" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="CB31" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="CC31" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="CD31" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="CE31" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="CF31" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="CG31" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="CH31" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="CI31" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="CJ31" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="CK31" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="CL31" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="CM31" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="CN31" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="CO31" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="CP31" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="CQ31" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CR31" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="CS31" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="CT31" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="CU31" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="CV31" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="CW31" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="CX31" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="CY31" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="CZ31" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="DA31" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="DB31" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="DC31" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="DD31" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="DE31" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="DF31" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="DG31" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="DH31" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="DI31" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="DJ31" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="DK31" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="DL31" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="DM31" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="DN31" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="DO31" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="DP31" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="DQ31" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="DR31" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="DS31" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="DT31" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="DU31" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="DV31" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="DW31" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="DX31" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="DY31" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="DZ31" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="EA31" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="EB31" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="EC31" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="ED31" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="EE31" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="EF31" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="EG31" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="EH31" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="EI31" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="EJ31" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="EK31" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="EL31" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="EM31" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="EN31" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="EO31" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="EP31" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="EQ31" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="ER31" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="ES31" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="ET31" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="EU31" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="EV31" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="EW31" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="EX31" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="EY31" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="EZ31" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="FA31" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="FB31" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="FC31" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="FD31" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="FE31" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="FF31" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="FG31" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="FH31" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="FI31" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="FJ31" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="FK31" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="FL31" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="FM31" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="FN31" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="FO31" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="FP31" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="FQ31" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="FR31" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="FS31" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="FT31" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="FU31" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="FV31" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="FW31" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="FX31" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="FY31" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="FZ31" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="GA31" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="GB31" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="GC31" s="9" t="s">
+        <v>1578</v>
+      </c>
     </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:185" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AT32" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AU32" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AW32" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AX32" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AY32" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AZ32" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="BA32" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="BB32" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="BC32" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="BD32" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="BE32" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="BF32" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="BG32" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="BH32" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BI32" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="BJ32" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="BK32" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BL32" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="BM32" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="BN32" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="BO32" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="BP32" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="BQ32" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="BR32" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="BS32" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="BT32" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="BU32" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="BV32" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="BW32" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="BX32" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="BY32" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="BZ32" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="CA32" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="CB32" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="CC32" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="CD32" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="CE32" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="CF32" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="CG32" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="CH32" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="CI32" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="CJ32" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="CK32" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="CL32" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="CM32" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="CN32" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="CO32" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="CP32" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="CQ32" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="CR32" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="CS32" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="CT32" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="CU32" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="CV32" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="CW32" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="CX32" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="CY32" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="CZ32" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="DA32" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="DB32" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="DC32" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="DD32" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="DE32" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="DF32" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="DG32" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="DH32" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="DI32" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="DJ32" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="DK32" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="DL32" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="DM32" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="DN32" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="DO32" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="DP32" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="DQ32" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="DR32" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="DS32" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="DT32" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="DU32" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="DV32" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="DW32" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="DX32" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="DY32" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="DZ32" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="EA32" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="EB32" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="EC32" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="ED32" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="EE32" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="EF32" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="EG32" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>1694</v>
+      </c>
+      <c r="EI32" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="EJ32" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="EK32" s="1" t="s">
+        <v>1697</v>
+      </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:235" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1706</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1707</v>
+      </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -7110,7 +9735,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7145,7 +9770,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -7339,7 +9964,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -7587,7 +10212,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -7605,7 +10230,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -7634,7 +10259,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -7705,12 +10330,714 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:235" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AI41" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AK41" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AL41" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AN41" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AS41" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AT41" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AU41" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AV41" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AW41" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AX41" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AY41" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AZ41" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="BA41" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="BB41" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="BC41" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BD41" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="BE41" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="BF41" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="BG41" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="BH41" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="BI41" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="BJ41" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BK41" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="BL41" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="BM41" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BN41" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BO41" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="BP41" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="BQ41" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="BR41" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="BS41" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="BT41" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="BU41" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="BV41" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="BW41" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="BX41" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="BY41" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="BZ41" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="CA41" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="CB41" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="CC41" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="CD41" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="CE41" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="CF41" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="CG41" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="CH41" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="CI41" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="CJ41" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="CK41" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="CL41" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="CM41" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="CN41" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="CO41" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="CP41" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="CQ41" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="CR41" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="CS41" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="CT41" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="CU41" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="CV41" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="CW41" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="CX41" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="CY41" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="CZ41" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="DA41" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="DB41" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="DC41" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="DD41" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="DE41" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="DF41" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="DG41" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="DH41" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="DI41" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="DJ41" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="DK41" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="DL41" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="DM41" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="DN41" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="DO41" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="DP41" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="DQ41" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="DR41" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="DS41" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="DT41" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="DU41" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="DV41" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="DW41" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="DX41" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="DY41" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="DZ41" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="EA41" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="EB41" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="EC41" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="ED41" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="EE41" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="EF41" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="EG41" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="EH41" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="EI41" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="EJ41" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="EK41" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="EL41" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="EM41" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="EN41" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="EO41" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="EP41" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="EQ41" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="ER41" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="ES41" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="ET41" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="EU41" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="EV41" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="EW41" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="EX41" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="EY41" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="EZ41" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="FA41" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="FB41" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="FC41" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="FD41" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="FE41" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="FF41" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="FG41" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="FH41" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="FI41" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="FJ41" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="FK41" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="FL41" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="FM41" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="FN41" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="FO41" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="FP41" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="FQ41" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="FR41" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="FS41" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="FT41" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="FU41" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="FV41" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="FW41" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="FX41" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="FY41" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="FZ41" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="GA41" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="GB41" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="GC41" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="GD41" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="GE41" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="GF41" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="GG41" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="GH41" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="GI41" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="GJ41" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="GK41" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="GL41" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="GM41" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="GN41" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="GO41" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="GP41" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="GQ41" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="GR41" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="GS41" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="GT41" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="GU41" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="GV41" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="GW41" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="GX41" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="GY41" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="GZ41" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="HA41" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="HB41" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="HC41" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="HD41" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="HE41" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="HF41" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="HG41" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="HH41" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="HI41" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="HJ41" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="HK41" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="HL41" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="HM41" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="HN41" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="HO41" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="HP41" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="HQ41" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="HR41" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="HS41" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="HT41" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="HU41" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="HV41" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="HW41" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="HX41" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="HY41" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="HZ41" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="IA41" s="1" t="s">
+        <v>730</v>
+      </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -7736,7 +11063,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
@@ -7936,7 +11263,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
